--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\813764\IdeaProjects\excel0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA03F8A6-2075-4364-A62D-C69870997664}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BDDAFB-AFB7-47F5-B611-3E9B1293D161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{BD238B1B-2EEE-41F8-9686-B9F786E17189}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD238B1B-2EEE-41F8-9686-B9F786E17189}"/>
   </bookViews>
   <sheets>
     <sheet name="details" sheetId="1" r:id="rId1"/>
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED451A8-926D-4824-9BF6-381A555C5F35}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,10 +524,10 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -538,10 +538,10 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -552,10 +552,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -566,10 +566,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>304</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -580,10 +580,10 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>610</v>
+        <v>61</v>
       </c>
       <c r="C13">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -594,10 +594,10 @@
         <v>7352</v>
       </c>
       <c r="B14">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -608,10 +608,10 @@
         <v>41</v>
       </c>
       <c r="B15">
-        <v>336</v>
+        <v>33</v>
       </c>
       <c r="C15">
-        <v>390</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -692,10 +692,10 @@
         <v>2132</v>
       </c>
       <c r="B21">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -706,10 +706,10 @@
         <v>135</v>
       </c>
       <c r="B22">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -751,7 +751,7 @@
         <v>294</v>
       </c>
       <c r="C25">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>147</v>
       </c>
       <c r="C30">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -846,10 +846,10 @@
         <v>84</v>
       </c>
       <c r="B32">
-        <v>265</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>301</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -874,10 +874,10 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="C34">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -888,10 +888,10 @@
         <v>5467</v>
       </c>
       <c r="B35">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -902,10 +902,10 @@
         <v>65</v>
       </c>
       <c r="B36">
-        <v>674</v>
+        <v>67</v>
       </c>
       <c r="C36">
-        <v>700</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -958,10 +958,10 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="C40">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -972,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>304</v>
+        <v>30</v>
       </c>
       <c r="C41">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="D41">
         <v>1</v>
